--- a/medicine/Enfance/Le_Renard_dans_l'île/Le_Renard_dans_l'île.xlsx
+++ b/medicine/Enfance/Le_Renard_dans_l'île/Le_Renard_dans_l'île.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Renard_dans_l%27%C3%AEle</t>
+          <t>Le_Renard_dans_l'île</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Renard dans l'île est un roman d'Henri Bosco publié en 1956. Il forme une intrigue autonome, mais constitue une suite à L'Enfant et la Rivière dont il dévoile largement l'intrigue. Il contient également des allusions aux personnages de L'Âne Culotte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Renard_dans_l%27%C3%AEle</t>
+          <t>Le_Renard_dans_l'île</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire se déroule au tournant des XIXe et XXe siècles, dans le sud de la France. Pascalet vit au Mas-du-Gage en compagnie de ses parents, de Tante Martine et du chien Barboche. Ils reçoivent parfois la visite de Bargabot, un braconnier qui connaît très bien la région et a protégé Pascalet par le passé.
 Tante Martine ment un peu pour convaincre les parents de Pascalet de recueillir Gatzo, un garçon bohémien dont Pascalet a fait la connaissance durant les événements relatés dans L'Enfant et la Rivière. Gatzo fait partie du peuple des Caraques, des Bohémiens cruels ; une nuit, Pascalet, qui avait fugué et explorait une île sur la rivière, a vu un campement de Caraques qui retenaient Gatzo prisonnier et il l'a libéré. Malgré l'affection qui l'entoure, Gatzo demeure secret et renfermé, et il conserve des craintes au sujet de son ancienne famille, insensible et violente. Certaines nuits, il s'installe sur l'aire qui s'étend derrière la maison, près du puits. Gatzo et Pascalet observent une présence étrange et indéfinissable dans la campagne environnante. Un animal semble errer près de la maison. Tante Martine prend Gatzo à part, les soirs, et elle parvient à le faire parler un peu de son ancienne famille. Elle apprend qu'on lui a dit qu'il n'avait pas d'âme.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Renard_dans_l%27%C3%AEle</t>
+          <t>Le_Renard_dans_l'île</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,9 +565,11 @@
           <t>Histoire éditoriale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Renard dans l'île paraît en 1956 aux éditions Gallimard, dans la collection La bibliothèque blanche[1]. Une réédition de 1965, dans la même collection, inclut des illustrations de Jean Palayer[2]. Le roman est réédité en 1974, toujours chez Gallimard, dans la collection 1000 Soleils, avec des illustrations de Jean-Olivier Héron[3]. En 2000, il connaît une réédition chez Gallimard jeunesse, dans la collection Folio junior n°386, avec des illustrations de Georges Lemoine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Renard dans l'île paraît en 1956 aux éditions Gallimard, dans la collection La bibliothèque blanche. Une réédition de 1965, dans la même collection, inclut des illustrations de Jean Palayer. Le roman est réédité en 1974, toujours chez Gallimard, dans la collection 1000 Soleils, avec des illustrations de Jean-Olivier Héron. En 2000, il connaît une réédition chez Gallimard jeunesse, dans la collection Folio junior n°386, avec des illustrations de Georges Lemoine.
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Renard_dans_l%27%C3%AEle</t>
+          <t>Le_Renard_dans_l'île</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Renard dans l'île fait l'objet d'une adaptation en téléfilm d'une durée d'une heure, réalisée par Leïla Sénati, avec un scénario de Denys de la Patellière, diffusée pour la première fois sur la chaîne TF1 en 1975[5],[6]. Ce téléfilm paraît par la suite en cassette vidéo VHS[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Renard dans l'île fait l'objet d'une adaptation en téléfilm d'une durée d'une heure, réalisée par Leïla Sénati, avec un scénario de Denys de la Patellière, diffusée pour la première fois sur la chaîne TF1 en 1975,. Ce téléfilm paraît par la suite en cassette vidéo VHS.
 </t>
         </is>
       </c>
